--- a/Contact_Trace.xlsx
+++ b/Contact_Trace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syabiqah/Documents/Projects/Data_Lib/excel-contact-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1714F042-C085-674A-B229-66FABD81B349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB11CE9-4077-EC42-BE85-7E5F6D63D5CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4280" windowWidth="23480" windowHeight="11720" xr2:uid="{FCA94384-DFEE-3040-8A8B-DEBDA00DFC61}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,12 +515,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" ref="C3:C24" ca="1" si="0">IF(B4&lt;&gt;"",IF(C4&lt;&gt;"",C4,NOW()),"")</f>
+        <f t="shared" ref="C4:C24" ca="1" si="0">IF(B4&lt;&gt;"",IF(C4&lt;&gt;"",C4,NOW()),"")</f>
         <v/>
       </c>
       <c r="E4" s="4"/>
       <c r="G4" s="2" t="str">
-        <f t="shared" ref="G3:G66" ca="1" si="1">IF(F4&lt;&gt;"",IF(G4&lt;&gt;"",G4,NOW()),"")</f>
+        <f t="shared" ref="G4:G66" ca="1" si="1">IF(F4&lt;&gt;"",IF(G4&lt;&gt;"",G4,NOW()),"")</f>
         <v/>
       </c>
     </row>
